--- a/revB/doc/pib-revB-bom.xlsx
+++ b/revB/doc/pib-revB-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\fp-pib-hw\revB\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4517C8-2308-4F65-8828-97EDB886322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69441F-22F2-4932-BF0C-EEC4D473BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="payload-interface-board-revB-bo" sheetId="1" r:id="rId1"/>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/revB/doc/pib-revB-bom.xlsx
+++ b/revB/doc/pib-revB-bom.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\fp-pib-hw\revB\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69441F-22F2-4932-BF0C-EEC4D473BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645DEA5-9271-4955-832B-90E6E87382EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="payload-interface-board-revB-bo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="190">
   <si>
     <t>Item</t>
   </si>
@@ -40,9 +53,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -67,9 +77,6 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>https://product.tdk.com/en/system/files?file=dam/doc/product/capacitor/ceramic/mlcc/catalog/mlcc_automotive_soft_en.pdf</t>
-  </si>
-  <si>
     <t>CAP CER 10000PF 50V X7R 0603</t>
   </si>
   <si>
@@ -130,9 +137,6 @@
     <t>SierraLobo:APA2107x</t>
   </si>
   <si>
-    <t>https://www.kingbrightusa.com/images/catalog/SPEC/APA2107LSECK-J3-PRV.pdf</t>
-  </si>
-  <si>
     <t>LED RED CLEAR SMD R/A</t>
   </si>
   <si>
@@ -148,9 +152,6 @@
     <t>YELLOW</t>
   </si>
   <si>
-    <t>https://www.kingbrightusa.com/images/catalog/SPEC/APA2107SYCK.pdf</t>
-  </si>
-  <si>
     <t>LED YELLOW CLEAR SMD R/A</t>
   </si>
   <si>
@@ -163,9 +164,6 @@
     <t>ORANGE</t>
   </si>
   <si>
-    <t>https://www.kingbrightusa.com/images/catalog/SPEC/APA2107SECK.pdf</t>
-  </si>
-  <si>
     <t>APA2107SECK</t>
   </si>
   <si>
@@ -175,9 +173,6 @@
     <t>GREEN</t>
   </si>
   <si>
-    <t>https://www.kingbrightusa.com/images/catalog/SPEC/APA2107CGCK.pdf</t>
-  </si>
-  <si>
     <t>APA2107CGCK</t>
   </si>
   <si>
@@ -193,9 +188,6 @@
     <t>payload-interface-board:SAMTEC_T1M-10-F-SV-L</t>
   </si>
   <si>
-    <t>https://suddendocs.samtec.com/prints/t1m-xx-x-sv-l-x-xx-mkt.pdf?_gl=1*mm8c48*_ga*MjEwNDk5NjMxMy4xNjUwMzAyMDA4*_ga_3KFNZC07WW*MTY2NDIxMDY4My41NC4xLjE2NjQyMTA5NDYuNjAuMC4w</t>
-  </si>
-  <si>
     <t>CONN HEADER SMD 10POS 1MM</t>
   </si>
   <si>
@@ -220,9 +212,6 @@
     <t>Package_TO_SOT_SMD:SOT-363_SC-70-6</t>
   </si>
   <si>
-    <t>http://www.diodes.com/_files/datasheets/ds30123.pdf</t>
-  </si>
-  <si>
     <t>TRANS NPN/PNP 40V 0.2A SOT363</t>
   </si>
   <si>
@@ -241,9 +230,6 @@
     <t>SierraLobo:MMDT2222</t>
   </si>
   <si>
-    <t>https://www.diodes.com/assets/Datasheets/ds30125.pdf</t>
-  </si>
-  <si>
     <t>TRANS 2NPN 40V 0.6A SOT363</t>
   </si>
   <si>
@@ -262,9 +248,6 @@
     <t>SierraLobo:PG-TSDSON-8_3.3x3.3mm</t>
   </si>
   <si>
-    <t>https://www.infineon.com/dgdl/Infineon-BSZ180P03NS3_G-DS-v02_01-en.pdf?fileId=db3a304326dfb13001271f04398f4ec1</t>
-  </si>
-  <si>
     <t>MOSFET P-CH 30V 9A/39.6A TSDSON</t>
   </si>
   <si>
@@ -286,9 +269,6 @@
     <t>Package_TO_SOT_SMD:SOT-323_SC-70</t>
   </si>
   <si>
-    <t>https://www.onsemi.com/pdf/datasheet/mmbt4401wt1-d.pdf</t>
-  </si>
-  <si>
     <t>TRANS NPN 40V 0.6A SC70-3</t>
   </si>
   <si>
@@ -307,9 +287,6 @@
     <t>mainboard:BSS138DWQ-7</t>
   </si>
   <si>
-    <t>https://www.diodes.com/assets/Datasheets/BSS138DWQ.pdf</t>
-  </si>
-  <si>
     <t>MOSFET 2NCH 50V 200MA SOT363</t>
   </si>
   <si>
@@ -328,9 +305,6 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>https://www.seielect.com/Catalog/SEI-RMCF_RMCP.pdf</t>
-  </si>
-  <si>
     <t>RES 100K OHM 1% 1/10W 0603</t>
   </si>
   <si>
@@ -490,9 +464,6 @@
     <t>Resistor_SMD:R_Array_Convex_4x0402</t>
   </si>
   <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/AOC0000/AOC0000C14.pdf</t>
-  </si>
-  <si>
     <t>RES ARRAY 4 RES 10K OHM 0804</t>
   </si>
   <si>
@@ -526,9 +497,6 @@
     <t>TestPoint:TestPoint_Keystone_5000-5004_Miniature</t>
   </si>
   <si>
-    <t>https://www.keyelco.com/userAssets/file/M65p56.pdf</t>
-  </si>
-  <si>
     <t>PC TEST POINT MINIATURE WHITE</t>
   </si>
   <si>
@@ -541,9 +509,6 @@
     <t>SierraLobo:Keystone_5027</t>
   </si>
   <si>
-    <t>https://www.keyelco.com/userAssets/file/M65p55.pdf</t>
-  </si>
-  <si>
     <t>PC TEST POINT MINIATURE</t>
   </si>
   <si>
@@ -559,9 +524,6 @@
     <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
   </si>
   <si>
-    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/4307f.pdf</t>
-  </si>
-  <si>
     <t>IC ACCELERATOR I2C HOTSWAP 8MSOP</t>
   </si>
   <si>
@@ -580,9 +542,6 @@
     <t>SierraLobo:RockBlock_9603</t>
   </si>
   <si>
-    <t>https://www.groundcontrol.com/us/wp-content/uploads/sites/4/2023/02/RockBLOCK-9603-Data-Sheet.pdf</t>
-  </si>
-  <si>
     <t>Ground Control</t>
   </si>
   <si>
@@ -601,9 +560,6 @@
     <t>Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
   </si>
   <si>
-    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Fsn74lvch245a</t>
-  </si>
-  <si>
     <t>IC TXRX NON-INVERT 3.6V 20TSSOP</t>
   </si>
   <si>
@@ -620,9 +576,6 @@
   </si>
   <si>
     <t>Package_TO_SOT_SMD:SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/20001942G.pdf</t>
   </si>
   <si>
     <t>SENSOR ANALOG -40C-125C SC70-5</t>
@@ -1133,11 +1086,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1183,7 +1137,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1201,18 +1158,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE343283-B75B-4096-B0AF-43878B63A244}" name="Table1" displayName="Table1" ref="A1:K40" totalsRowShown="0">
-  <autoFilter ref="A1:K40" xr:uid="{CE343283-B75B-4096-B0AF-43878B63A244}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE343283-B75B-4096-B0AF-43878B63A244}" name="Table1" displayName="Table1" ref="A1:J40" totalsRowShown="0">
+  <autoFilter ref="A1:J40" xr:uid="{CE343283-B75B-4096-B0AF-43878B63A244}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6A3E515B-11D7-48AA-94DF-98F22FED11EC}" name="Item"/>
     <tableColumn id="2" xr3:uid="{7F9D1173-7D0A-4FFC-BA36-B0E98184C903}" name="Qty"/>
-    <tableColumn id="3" xr3:uid="{41C8DB90-456F-4DD0-8BA2-4D05E5A42318}" name="Reference(s)" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{83E305C7-9590-4444-B559-10AC9F987656}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{41C8DB90-456F-4DD0-8BA2-4D05E5A42318}" name="Reference(s)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{83E305C7-9590-4444-B559-10AC9F987656}" name="Value" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{1F05D597-F2A4-4390-BB0A-7A8E112F2B92}" name="DNP"/>
     <tableColumn id="6" xr3:uid="{52F38464-944D-4EDE-8863-78CB58A5C37B}" name="Description"/>
     <tableColumn id="7" xr3:uid="{64E16A4B-B6C0-4699-BBA6-C950E7BF6871}" name="Manufacturer"/>
     <tableColumn id="8" xr3:uid="{31F28EE6-1592-4AAE-813E-DF6557BFFDA7}" name="Mfr. Part No"/>
-    <tableColumn id="9" xr3:uid="{7CDCF0E2-5C3A-403A-9A95-DA4DD174BCE9}" name="Datasheet"/>
     <tableColumn id="10" xr3:uid="{0BB278C6-83D0-462F-9886-37E0D24B2EAD}" name="LibPart"/>
     <tableColumn id="11" xr3:uid="{CA5BFAF1-01D0-431E-B362-6615F118E77D}" name="Footprint"/>
   </tableColumns>
@@ -1517,26 +1473,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1546,32 +1501,29 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1579,31 +1531,28 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1611,31 +1560,28 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1643,31 +1589,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1675,31 +1618,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1707,31 +1647,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1739,31 +1676,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1771,31 +1705,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1803,31 +1734,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1835,31 +1763,28 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1867,31 +1792,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
       <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1899,31 +1821,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1931,31 +1850,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1963,31 +1879,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1995,31 +1908,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2027,31 +1937,28 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2059,34 +1966,31 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2094,31 +1998,28 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2126,31 +2027,28 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2158,31 +2056,28 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2190,34 +2085,31 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2225,31 +2117,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" t="s">
-        <v>116</v>
+        <v>102</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2257,31 +2146,28 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2289,31 +2175,28 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24">
+        <v>110</v>
+      </c>
+      <c r="D24" s="2">
         <v>220</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2321,31 +2204,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2353,31 +2233,28 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2385,31 +2262,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2417,31 +2291,28 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" t="s">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
-      </c>
-      <c r="K28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2449,31 +2320,28 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2481,31 +2349,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30">
+        <v>133</v>
+      </c>
+      <c r="D30" s="2">
         <v>680</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2513,31 +2378,28 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2545,31 +2407,28 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
+        <v>140</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2577,31 +2436,28 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
+        <v>146</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I33" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
-      </c>
-      <c r="K33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2609,31 +2465,28 @@
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
+        <v>150</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H34">
         <v>5002</v>
       </c>
       <c r="I34" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
-      </c>
-      <c r="K34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2641,31 +2494,28 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
+        <v>156</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H35">
         <v>5027</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
-        <v>166</v>
-      </c>
-      <c r="K35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2673,31 +2523,28 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" t="s">
-        <v>176</v>
+        <v>159</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="J36" t="s">
-        <v>177</v>
-      </c>
-      <c r="K36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2705,28 +2552,25 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" t="s">
-        <v>184</v>
+        <v>166</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="G37" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
-      </c>
-      <c r="K37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2734,31 +2578,28 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" t="s">
-        <v>190</v>
+        <v>171</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H38" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
-        <v>191</v>
-      </c>
-      <c r="K38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2766,31 +2607,28 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" t="s">
-        <v>197</v>
+        <v>177</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="J39" t="s">
-        <v>198</v>
-      </c>
-      <c r="K39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2798,31 +2636,32 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" t="s">
-        <v>204</v>
+        <v>183</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="H40" t="s">
-        <v>209</v>
+        <v>189</v>
+      </c>
+      <c r="I40" t="s">
+        <v>185</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
-      </c>
-      <c r="K40" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>